--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd-service\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE5FA9-F325-4851-BC13-FE60AEB43175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6FB666-34DB-4832-AA6E-6078147CC197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="255">
   <si>
     <t>$id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1809,25 +1809,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rank.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank.100</t>
-  </si>
-  <si>
-    <t>rank.100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rank.main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settlement.win</t>
-  </si>
-  <si>
-    <t>settlement.win</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2632,17 +2614,6 @@
   ranking: settlement.ranking, 
   timeout: settlement.timeout.me,
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settlement.100</t>
-  </si>
-  <si>
-    <t>settlement.100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>settlement.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2883,13 +2854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  ranking: rank.ranking.ten,
-  size: rank.size.ten,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[ $le,
   [$div, ?ranking, ?size],
   0.1
@@ -2908,20 +2872,6 @@
   [$div, ?ranking, ?size],
   0.001
 ]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  ranking: rank.ranking.hundred,
-  size: rank.size.hundred,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  ranking: rank.ranking.main,
-  size: rank.size.main,
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2979,6 +2929,63 @@
   </si>
   <si>
     <t>record.c.m0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank.ten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank.hundred</t>
+  </si>
+  <si>
+    <t>rank.hundred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  ranking: rank.hundred.ranking,
+  size: rank.hundred.size,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  ranking: rank.ten.ranking,
+  size: rank.ten.size,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  ranking: rank.main.ranking,
+  size: rank.main.size,
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3604,13 +3611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3621,13 +3628,14 @@
     <col min="4" max="4" width="9.9140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.08203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="36" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="12" customWidth="1"/>
-    <col min="8" max="8" width="41.08203125" style="53" customWidth="1"/>
-    <col min="9" max="9" width="57.08203125" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="25.5" style="2"/>
+    <col min="7" max="7" width="12.08203125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="41.08203125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="57.08203125" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="25.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3647,45 +3655,51 @@
         <v>34</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="44" t="s">
-        <v>119</v>
-      </c>
       <c r="I1" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="55" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="E2" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="G2" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="I2" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J2" s="54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>101</v>
       </c>
@@ -3702,16 +3716,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>164</v>
+        <v>244</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>102</v>
       </c>
@@ -3729,16 +3746,19 @@
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>166</v>
+        <v>243</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>103</v>
       </c>
@@ -3755,16 +3775,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>168</v>
+        <v>243</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>104</v>
       </c>
@@ -3784,16 +3807,19 @@
         <v>6</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>163</v>
+        <v>243</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>105</v>
       </c>
@@ -3813,16 +3839,19 @@
         <v>7</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>165</v>
+        <v>243</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>106</v>
       </c>
@@ -3839,16 +3868,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>167</v>
+        <v>243</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>107</v>
       </c>
@@ -3868,16 +3900,19 @@
         <v>8</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>163</v>
+        <v>243</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>108</v>
       </c>
@@ -3897,16 +3932,19 @@
         <v>9</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>166</v>
+        <v>243</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>109</v>
       </c>
@@ -3926,16 +3964,19 @@
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="46" t="s">
-        <v>167</v>
+        <v>243</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="J11" s="46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>110</v>
       </c>
@@ -3955,16 +3996,19 @@
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" s="45" t="s">
-        <v>163</v>
+        <v>243</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="J12" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>111</v>
       </c>
@@ -3984,16 +4028,19 @@
         <v>12</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="48" t="s">
-        <v>165</v>
+        <v>243</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>112</v>
       </c>
@@ -4013,24 +4060,27 @@
         <v>13</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>167</v>
+        <v>243</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>113</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D15" s="20">
         <v>0</v>
@@ -4040,24 +4090,27 @@
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="59" t="s">
-        <v>187</v>
+        <v>112</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="23" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="J15" s="59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="23" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>114</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
@@ -4069,16 +4122,19 @@
         <v>14</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="58" t="s">
-        <v>197</v>
+        <v>112</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>115</v>
       </c>
@@ -4098,24 +4154,27 @@
         <v>15</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>176</v>
+        <v>244</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>116</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
@@ -4125,24 +4184,27 @@
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>191</v>
+        <v>245</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>117</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D19" s="20">
         <v>0</v>
@@ -4152,24 +4214,27 @@
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="J19" s="59" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <v>118</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -4181,24 +4246,27 @@
         <v>16</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="58" t="s">
-        <v>204</v>
+        <v>112</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="26" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="26" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>119</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D21" s="26">
         <v>2</v>
@@ -4210,16 +4278,19 @@
         <v>17</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="H21" s="60" t="s">
-        <v>204</v>
+        <v>112</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="62" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="J21" s="60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>120</v>
       </c>
@@ -4238,22 +4309,25 @@
       <c r="G22" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="61" t="s">
-        <v>201</v>
+      <c r="H22" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>121</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
@@ -4265,22 +4339,25 @@
       <c r="G23" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="59" t="s">
-        <v>203</v>
+      <c r="H23" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="J23" s="59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>122</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -4292,24 +4369,27 @@
         <v>18</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="58" t="s">
-        <v>209</v>
+        <v>112</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="23" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>123</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
@@ -4319,24 +4399,27 @@
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="58" t="s">
-        <v>212</v>
+        <v>112</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>112</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>124</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D26" s="20">
         <v>0</v>
@@ -4348,22 +4431,25 @@
       <c r="G26" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="59" t="s">
-        <v>215</v>
+      <c r="H26" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="I26" s="59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+      <c r="J26" s="59" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>125</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D27" s="20">
         <v>0</v>
@@ -4375,22 +4461,25 @@
       <c r="G27" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="59" t="s">
-        <v>216</v>
+      <c r="H27" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="J27" s="59" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>126</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D28" s="20">
         <v>0</v>
@@ -4402,22 +4491,25 @@
       <c r="G28" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="59" t="s">
-        <v>216</v>
+      <c r="H28" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="J28" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>127</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D29" s="20">
         <v>0</v>
@@ -4427,24 +4519,27 @@
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="59" t="s">
-        <v>219</v>
-      </c>
       <c r="I29" s="59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="J29" s="59" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>128</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D30" s="20">
         <v>0</v>
@@ -4454,24 +4549,27 @@
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="59" t="s">
-        <v>219</v>
-      </c>
       <c r="I30" s="59" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="20" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="J30" s="59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="20" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>129</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D31" s="20">
         <v>0</v>
@@ -4481,16 +4579,19 @@
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="59" t="s">
-        <v>219</v>
-      </c>
       <c r="I31" s="59" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>130</v>
       </c>
@@ -4507,16 +4608,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="H32" s="45" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="J32" s="45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>131</v>
       </c>
@@ -4534,16 +4638,19 @@
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>132</v>
       </c>
@@ -4563,16 +4670,19 @@
         <v>19</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" s="47" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="I34" s="47" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="J34" s="47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>133</v>
       </c>
@@ -4589,16 +4699,19 @@
         <v>0</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="45" t="s">
-        <v>227</v>
+        <v>243</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="J35" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>134</v>
       </c>
@@ -4616,16 +4729,19 @@
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>226</v>
+        <v>243</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="I36" s="46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>135</v>
       </c>
@@ -4643,16 +4759,19 @@
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H37" s="47" t="s">
-        <v>226</v>
+        <v>243</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="I37" s="47" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>136</v>
       </c>
@@ -4672,16 +4791,19 @@
         <v>20</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H38" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="I38" s="48" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>137</v>
       </c>
@@ -4698,16 +4820,19 @@
         <v>0</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>231</v>
+        <v>243</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>138</v>
       </c>
@@ -4725,16 +4850,19 @@
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="H40" s="46" t="s">
-        <v>228</v>
+        <v>243</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="I40" s="46" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>139</v>
       </c>
@@ -4752,16 +4880,19 @@
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H41" s="47" t="s">
-        <v>228</v>
+        <v>243</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="I41" s="47" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>140</v>
       </c>
@@ -4781,16 +4912,19 @@
         <v>30</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>231</v>
+        <v>243</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="I42" s="48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>141</v>
       </c>
@@ -4808,16 +4942,19 @@
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="62" t="s">
-        <v>236</v>
+        <v>247</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="I43" s="62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="J43" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>142</v>
       </c>
@@ -4837,16 +4974,19 @@
         <v>21</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H44" s="63" t="s">
-        <v>236</v>
+        <v>246</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>248</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="J44" s="63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>143</v>
       </c>
@@ -4866,16 +5006,19 @@
         <v>22</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="64" t="s">
-        <v>236</v>
+        <v>246</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>248</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="J45" s="64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>144</v>
       </c>
@@ -4893,16 +5036,19 @@
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H46" s="62" t="s">
-        <v>240</v>
+        <v>246</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="I46" s="62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>145</v>
       </c>
@@ -4922,16 +5068,19 @@
         <v>23</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H47" s="63" t="s">
-        <v>240</v>
+        <v>246</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>250</v>
       </c>
       <c r="I47" s="63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="J47" s="63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>146</v>
       </c>
@@ -4951,16 +5100,19 @@
         <v>24</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H48" s="64" t="s">
-        <v>240</v>
+        <v>246</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+      <c r="J48" s="64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>147</v>
       </c>
@@ -4980,16 +5132,19 @@
         <v>31</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="I49" s="62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="J49" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>148</v>
       </c>
@@ -5009,16 +5164,19 @@
         <v>32</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="63" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="I50" s="63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="J50" s="63" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>149</v>
       </c>
@@ -5038,16 +5196,19 @@
         <v>33</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H51" s="64" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="I51" s="64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+      <c r="J51" s="64" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <v>150</v>
       </c>
@@ -5055,7 +5216,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D52" s="23">
         <v>1</v>
@@ -5065,24 +5226,27 @@
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="H52" s="49" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+      <c r="J52" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>151</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D53" s="23">
         <v>1</v>
@@ -5096,14 +5260,17 @@
       <c r="G53" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="H53" s="49" t="s">
-        <v>244</v>
+      <c r="H53" s="25" t="s">
+        <v>232</v>
       </c>
       <c r="I53" s="49" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J53" s="49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>152</v>
       </c>
@@ -5120,16 +5287,19 @@
         <v>0</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H54" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="I54" s="45" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J54" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>153</v>
       </c>
@@ -5149,16 +5319,19 @@
         <v>26</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="H55" s="46" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>154</v>
       </c>
@@ -5178,16 +5351,19 @@
         <v>27</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H56" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="I56" s="47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" s="47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
         <v>155</v>
       </c>
@@ -5207,24 +5383,27 @@
         <v>28</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="I57" s="48" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="23" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I57" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="J57" s="48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" s="23" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <v>156</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D58" s="24">
         <v>1</v>
@@ -5236,22 +5415,25 @@
       <c r="G58" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="H58" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="I58" s="58" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="30" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
+      <c r="H58" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="J58" s="58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="30" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>157</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D59" s="31">
         <v>3</v>
@@ -5265,705 +5447,823 @@
       <c r="G59" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H59" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="I59" s="67" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H59" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I59" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="J59" s="67" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="52"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H60" s="19"/>
+      <c r="I60" s="52"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="52"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H61" s="19"/>
+      <c r="I61" s="52"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="52"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H62" s="19"/>
+      <c r="I62" s="52"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="52"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H63" s="19"/>
+      <c r="I63" s="52"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="52"/>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H64" s="19"/>
+      <c r="I64" s="52"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="52"/>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H65" s="19"/>
+      <c r="I65" s="52"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="G66" s="19"/>
-      <c r="H66" s="52"/>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H66" s="19"/>
+      <c r="I66" s="52"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="G67" s="19"/>
-      <c r="H67" s="52"/>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H67" s="19"/>
+      <c r="I67" s="52"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="G68" s="19"/>
-      <c r="H68" s="52"/>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H68" s="19"/>
+      <c r="I68" s="52"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="G69" s="19"/>
-      <c r="H69" s="52"/>
-    </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H69" s="19"/>
+      <c r="I69" s="52"/>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="G70" s="19"/>
-      <c r="H70" s="52"/>
-    </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H70" s="19"/>
+      <c r="I70" s="52"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="G71" s="19"/>
-      <c r="H71" s="52"/>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H71" s="19"/>
+      <c r="I71" s="52"/>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="G72" s="19"/>
-      <c r="H72" s="52"/>
-    </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H72" s="19"/>
+      <c r="I72" s="52"/>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="G73" s="19"/>
-      <c r="H73" s="52"/>
-    </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H73" s="19"/>
+      <c r="I73" s="52"/>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="G74" s="19"/>
-      <c r="H74" s="52"/>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H74" s="19"/>
+      <c r="I74" s="52"/>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="G75" s="19"/>
-      <c r="H75" s="52"/>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H75" s="19"/>
+      <c r="I75" s="52"/>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="G76" s="19"/>
-      <c r="H76" s="52"/>
-    </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H76" s="19"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="G77" s="19"/>
-      <c r="H77" s="52"/>
-    </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H77" s="19"/>
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="G78" s="19"/>
-      <c r="H78" s="52"/>
-    </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H78" s="19"/>
+      <c r="I78" s="52"/>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="G79" s="19"/>
-      <c r="H79" s="52"/>
-    </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H79" s="19"/>
+      <c r="I79" s="52"/>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="52"/>
-    </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H80" s="19"/>
+      <c r="I80" s="52"/>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="G81" s="19"/>
-      <c r="H81" s="52"/>
-    </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H81" s="19"/>
+      <c r="I81" s="52"/>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="G82" s="19"/>
-      <c r="H82" s="52"/>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H82" s="19"/>
+      <c r="I82" s="52"/>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="G83" s="19"/>
-      <c r="H83" s="52"/>
-    </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H83" s="19"/>
+      <c r="I83" s="52"/>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="G84" s="19"/>
-      <c r="H84" s="52"/>
-    </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H84" s="19"/>
+      <c r="I84" s="52"/>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="G85" s="19"/>
-      <c r="H85" s="52"/>
-    </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H85" s="19"/>
+      <c r="I85" s="52"/>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="G86" s="19"/>
-      <c r="H86" s="52"/>
-    </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H86" s="19"/>
+      <c r="I86" s="52"/>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="G87" s="19"/>
-      <c r="H87" s="52"/>
-    </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H87" s="19"/>
+      <c r="I87" s="52"/>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="G88" s="19"/>
-      <c r="H88" s="52"/>
-    </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H88" s="19"/>
+      <c r="I88" s="52"/>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="G89" s="19"/>
-      <c r="H89" s="52"/>
-    </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H89" s="19"/>
+      <c r="I89" s="52"/>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="G90" s="19"/>
-      <c r="H90" s="52"/>
-    </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H90" s="19"/>
+      <c r="I90" s="52"/>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="G91" s="19"/>
-      <c r="H91" s="52"/>
-    </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H91" s="19"/>
+      <c r="I91" s="52"/>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="G92" s="19"/>
-      <c r="H92" s="52"/>
-    </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H92" s="19"/>
+      <c r="I92" s="52"/>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="G93" s="19"/>
-      <c r="H93" s="52"/>
-    </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H93" s="19"/>
+      <c r="I93" s="52"/>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="G94" s="19"/>
-      <c r="H94" s="52"/>
-    </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H94" s="19"/>
+      <c r="I94" s="52"/>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="G95" s="19"/>
-      <c r="H95" s="52"/>
-    </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H95" s="19"/>
+      <c r="I95" s="52"/>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="G96" s="19"/>
-      <c r="H96" s="52"/>
-    </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H96" s="19"/>
+      <c r="I96" s="52"/>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="G97" s="19"/>
-      <c r="H97" s="52"/>
-    </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H97" s="19"/>
+      <c r="I97" s="52"/>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="G98" s="19"/>
-      <c r="H98" s="52"/>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H98" s="19"/>
+      <c r="I98" s="52"/>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="G99" s="19"/>
-      <c r="H99" s="52"/>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H99" s="19"/>
+      <c r="I99" s="52"/>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="G100" s="19"/>
-      <c r="H100" s="52"/>
-    </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H100" s="19"/>
+      <c r="I100" s="52"/>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="G101" s="19"/>
-      <c r="H101" s="52"/>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H101" s="19"/>
+      <c r="I101" s="52"/>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="G102" s="19"/>
-      <c r="H102" s="52"/>
-    </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H102" s="19"/>
+      <c r="I102" s="52"/>
+    </row>
+    <row r="103" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="G103" s="19"/>
-      <c r="H103" s="52"/>
-    </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H103" s="19"/>
+      <c r="I103" s="52"/>
+    </row>
+    <row r="104" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="G104" s="19"/>
-      <c r="H104" s="52"/>
-    </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H104" s="19"/>
+      <c r="I104" s="52"/>
+    </row>
+    <row r="105" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="G105" s="19"/>
-      <c r="H105" s="52"/>
-    </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="19"/>
+      <c r="I105" s="52"/>
+    </row>
+    <row r="106" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="G106" s="19"/>
-      <c r="H106" s="52"/>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H106" s="19"/>
+      <c r="I106" s="52"/>
+    </row>
+    <row r="107" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="G107" s="19"/>
-      <c r="H107" s="52"/>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H107" s="19"/>
+      <c r="I107" s="52"/>
+    </row>
+    <row r="108" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="G108" s="19"/>
-      <c r="H108" s="52"/>
-    </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H108" s="19"/>
+      <c r="I108" s="52"/>
+    </row>
+    <row r="109" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="G109" s="19"/>
-      <c r="H109" s="52"/>
-    </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H109" s="19"/>
+      <c r="I109" s="52"/>
+    </row>
+    <row r="110" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="G110" s="19"/>
-      <c r="H110" s="52"/>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H110" s="19"/>
+      <c r="I110" s="52"/>
+    </row>
+    <row r="111" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="G111" s="19"/>
-      <c r="H111" s="52"/>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H111" s="19"/>
+      <c r="I111" s="52"/>
+    </row>
+    <row r="112" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="G112" s="19"/>
-      <c r="H112" s="52"/>
-    </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H112" s="19"/>
+      <c r="I112" s="52"/>
+    </row>
+    <row r="113" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="G113" s="19"/>
-      <c r="H113" s="52"/>
-    </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H113" s="19"/>
+      <c r="I113" s="52"/>
+    </row>
+    <row r="114" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="G114" s="19"/>
-      <c r="H114" s="52"/>
-    </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H114" s="19"/>
+      <c r="I114" s="52"/>
+    </row>
+    <row r="115" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="G115" s="19"/>
-      <c r="H115" s="52"/>
-    </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H115" s="19"/>
+      <c r="I115" s="52"/>
+    </row>
+    <row r="116" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="G116" s="19"/>
-      <c r="H116" s="52"/>
-    </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H116" s="19"/>
+      <c r="I116" s="52"/>
+    </row>
+    <row r="117" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="G117" s="19"/>
-      <c r="H117" s="52"/>
-    </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H117" s="19"/>
+      <c r="I117" s="52"/>
+    </row>
+    <row r="118" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="G118" s="19"/>
-      <c r="H118" s="52"/>
-    </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H118" s="19"/>
+      <c r="I118" s="52"/>
+    </row>
+    <row r="119" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="G119" s="19"/>
-      <c r="H119" s="52"/>
-    </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H119" s="19"/>
+      <c r="I119" s="52"/>
+    </row>
+    <row r="120" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="G120" s="19"/>
-      <c r="H120" s="52"/>
-    </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H120" s="19"/>
+      <c r="I120" s="52"/>
+    </row>
+    <row r="121" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="G121" s="19"/>
-      <c r="H121" s="52"/>
-    </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H121" s="19"/>
+      <c r="I121" s="52"/>
+    </row>
+    <row r="122" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="G122" s="19"/>
-      <c r="H122" s="52"/>
-    </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H122" s="19"/>
+      <c r="I122" s="52"/>
+    </row>
+    <row r="123" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="G123" s="19"/>
-      <c r="H123" s="52"/>
-    </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H123" s="19"/>
+      <c r="I123" s="52"/>
+    </row>
+    <row r="124" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="G124" s="19"/>
-      <c r="H124" s="52"/>
-    </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H124" s="19"/>
+      <c r="I124" s="52"/>
+    </row>
+    <row r="125" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="G125" s="19"/>
-      <c r="H125" s="52"/>
-    </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H125" s="19"/>
+      <c r="I125" s="52"/>
+    </row>
+    <row r="126" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="G126" s="19"/>
-      <c r="H126" s="52"/>
-    </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H126" s="19"/>
+      <c r="I126" s="52"/>
+    </row>
+    <row r="127" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="G127" s="19"/>
-      <c r="H127" s="52"/>
-    </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H127" s="19"/>
+      <c r="I127" s="52"/>
+    </row>
+    <row r="128" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="G128" s="19"/>
-      <c r="H128" s="52"/>
-    </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H128" s="19"/>
+      <c r="I128" s="52"/>
+    </row>
+    <row r="129" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="G129" s="19"/>
-      <c r="H129" s="52"/>
-    </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H129" s="19"/>
+      <c r="I129" s="52"/>
+    </row>
+    <row r="130" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="G130" s="19"/>
-      <c r="H130" s="52"/>
-    </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H130" s="19"/>
+      <c r="I130" s="52"/>
+    </row>
+    <row r="131" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="52"/>
-    </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H131" s="19"/>
+      <c r="I131" s="52"/>
+    </row>
+    <row r="132" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="G132" s="19"/>
-      <c r="H132" s="52"/>
-    </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="19"/>
+      <c r="I132" s="52"/>
+    </row>
+    <row r="133" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="G133" s="19"/>
-      <c r="H133" s="52"/>
-    </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H133" s="19"/>
+      <c r="I133" s="52"/>
+    </row>
+    <row r="134" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="G134" s="19"/>
-      <c r="H134" s="52"/>
-    </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H134" s="19"/>
+      <c r="I134" s="52"/>
+    </row>
+    <row r="135" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="G135" s="19"/>
-      <c r="H135" s="52"/>
-    </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H135" s="19"/>
+      <c r="I135" s="52"/>
+    </row>
+    <row r="136" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="G136" s="19"/>
-      <c r="H136" s="52"/>
-    </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H136" s="19"/>
+      <c r="I136" s="52"/>
+    </row>
+    <row r="137" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="G137" s="19"/>
-      <c r="H137" s="52"/>
-    </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H137" s="19"/>
+      <c r="I137" s="52"/>
+    </row>
+    <row r="138" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="G138" s="19"/>
-      <c r="H138" s="52"/>
-    </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H138" s="19"/>
+      <c r="I138" s="52"/>
+    </row>
+    <row r="139" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="G139" s="19"/>
-      <c r="H139" s="52"/>
-    </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H139" s="19"/>
+      <c r="I139" s="52"/>
+    </row>
+    <row r="140" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="G140" s="19"/>
-      <c r="H140" s="52"/>
-    </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H140" s="19"/>
+      <c r="I140" s="52"/>
+    </row>
+    <row r="141" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="G141" s="19"/>
-      <c r="H141" s="52"/>
-    </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H141" s="19"/>
+      <c r="I141" s="52"/>
+    </row>
+    <row r="142" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="G142" s="19"/>
-      <c r="H142" s="52"/>
-    </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H142" s="19"/>
+      <c r="I142" s="52"/>
+    </row>
+    <row r="143" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="G143" s="19"/>
-      <c r="H143" s="52"/>
-    </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H143" s="19"/>
+      <c r="I143" s="52"/>
+    </row>
+    <row r="144" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="G144" s="19"/>
-      <c r="H144" s="52"/>
-    </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H144" s="19"/>
+      <c r="I144" s="52"/>
+    </row>
+    <row r="145" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="G145" s="19"/>
-      <c r="H145" s="52"/>
-    </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H145" s="19"/>
+      <c r="I145" s="52"/>
+    </row>
+    <row r="146" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="G146" s="19"/>
-      <c r="H146" s="52"/>
-    </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H146" s="19"/>
+      <c r="I146" s="52"/>
+    </row>
+    <row r="147" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="G147" s="19"/>
-      <c r="H147" s="52"/>
-    </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H147" s="19"/>
+      <c r="I147" s="52"/>
+    </row>
+    <row r="148" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="G148" s="19"/>
-      <c r="H148" s="52"/>
-    </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H148" s="19"/>
+      <c r="I148" s="52"/>
+    </row>
+    <row r="149" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="G149" s="19"/>
-      <c r="H149" s="52"/>
-    </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H149" s="19"/>
+      <c r="I149" s="52"/>
+    </row>
+    <row r="150" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="G150" s="19"/>
-      <c r="H150" s="52"/>
-    </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H150" s="19"/>
+      <c r="I150" s="52"/>
+    </row>
+    <row r="151" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="G151" s="19"/>
-      <c r="H151" s="52"/>
-    </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H151" s="19"/>
+      <c r="I151" s="52"/>
+    </row>
+    <row r="152" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="G152" s="19"/>
-      <c r="H152" s="52"/>
-    </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H152" s="19"/>
+      <c r="I152" s="52"/>
+    </row>
+    <row r="153" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="G153" s="19"/>
-      <c r="H153" s="52"/>
-    </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H153" s="19"/>
+      <c r="I153" s="52"/>
+    </row>
+    <row r="154" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="G154" s="19"/>
-      <c r="H154" s="52"/>
-    </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H154" s="19"/>
+      <c r="I154" s="52"/>
+    </row>
+    <row r="155" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="G155" s="19"/>
-      <c r="H155" s="52"/>
-    </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H155" s="19"/>
+      <c r="I155" s="52"/>
+    </row>
+    <row r="156" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="G156" s="19"/>
-      <c r="H156" s="52"/>
-    </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H156" s="19"/>
+      <c r="I156" s="52"/>
+    </row>
+    <row r="157" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="G157" s="19"/>
-      <c r="H157" s="52"/>
-    </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H157" s="19"/>
+      <c r="I157" s="52"/>
+    </row>
+    <row r="158" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="G158" s="19"/>
-      <c r="H158" s="52"/>
-    </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H158" s="19"/>
+      <c r="I158" s="52"/>
+    </row>
+    <row r="159" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="G159" s="19"/>
-      <c r="H159" s="52"/>
-    </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H159" s="19"/>
+      <c r="I159" s="52"/>
+    </row>
+    <row r="160" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="G160" s="19"/>
-      <c r="H160" s="52"/>
-    </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H160" s="19"/>
+      <c r="I160" s="52"/>
+    </row>
+    <row r="161" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="G161" s="19"/>
-      <c r="H161" s="52"/>
-    </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H161" s="19"/>
+      <c r="I161" s="52"/>
+    </row>
+    <row r="162" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="G162" s="19"/>
-      <c r="H162" s="52"/>
-    </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H162" s="19"/>
+      <c r="I162" s="52"/>
+    </row>
+    <row r="163" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="G163" s="19"/>
-      <c r="H163" s="52"/>
-    </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H163" s="19"/>
+      <c r="I163" s="52"/>
+    </row>
+    <row r="164" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="G164" s="19"/>
-      <c r="H164" s="52"/>
-    </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H164" s="19"/>
+      <c r="I164" s="52"/>
+    </row>
+    <row r="165" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="G165" s="19"/>
-      <c r="H165" s="52"/>
-    </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H165" s="19"/>
+      <c r="I165" s="52"/>
+    </row>
+    <row r="166" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="G166" s="19"/>
-      <c r="H166" s="52"/>
-    </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H166" s="19"/>
+      <c r="I166" s="52"/>
+    </row>
+    <row r="167" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="G167" s="19"/>
-      <c r="H167" s="52"/>
-    </row>
-    <row r="168" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H167" s="19"/>
+      <c r="I167" s="52"/>
+    </row>
+    <row r="168" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="G168" s="19"/>
-      <c r="H168" s="52"/>
-    </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H168" s="19"/>
+      <c r="I168" s="52"/>
+    </row>
+    <row r="169" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="G169" s="19"/>
-      <c r="H169" s="52"/>
-    </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H169" s="19"/>
+      <c r="I169" s="52"/>
+    </row>
+    <row r="170" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="G170" s="19"/>
-      <c r="H170" s="52"/>
-    </row>
-    <row r="171" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H170" s="19"/>
+      <c r="I170" s="52"/>
+    </row>
+    <row r="171" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="G171" s="19"/>
-      <c r="H171" s="52"/>
-    </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H171" s="19"/>
+      <c r="I171" s="52"/>
+    </row>
+    <row r="172" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="G172" s="19"/>
-      <c r="H172" s="52"/>
-    </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H172" s="19"/>
+      <c r="I172" s="52"/>
+    </row>
+    <row r="173" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="G173" s="19"/>
-      <c r="H173" s="52"/>
-    </row>
-    <row r="174" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H173" s="19"/>
+      <c r="I173" s="52"/>
+    </row>
+    <row r="174" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="G174" s="19"/>
-      <c r="H174" s="52"/>
-    </row>
-    <row r="175" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="H175" s="45"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="52"/>
+    </row>
+    <row r="175" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd-service\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6FB666-34DB-4832-AA6E-6078147CC197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344187AF-692E-43D1-9E11-5C44CD6ADA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="251">
   <si>
     <t>$id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2448,48 +2448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>record.c.10W</t>
-  </si>
-  <si>
-    <t>record.c.10W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.c.100W</t>
-  </si>
-  <si>
-    <t>record.c.100W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.c.privW</t>
-  </si>
-  <si>
-    <t>record.c.privW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{count: record.c.10W}</t>
-  </si>
-  <si>
-    <t>{count: record.c.10W}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{count: record.c.100W}</t>
-  </si>
-  <si>
-    <t>{count: record.c.100W}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{count: record.c.privW}</t>
-  </si>
-  <si>
-    <t>{count: record.c.privW}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>record.c.badge</t>
   </si>
   <si>
@@ -2509,14 +2467,6 @@
   </si>
   <si>
     <t>record.c.pair</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.s.pairW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{count: record.s.pairW}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2987,6 +2937,38 @@
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record.c.10Win</t>
+  </si>
+  <si>
+    <t>record.c.10Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record.c.100Win</t>
+  </si>
+  <si>
+    <t>record.c.100Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{count: record.c.10Win}</t>
+  </si>
+  <si>
+    <t>{count: record.c.100Win}</t>
+  </si>
+  <si>
+    <t>{count: record.c.privWin}</t>
+  </si>
+  <si>
+    <t>record.c.privWin</t>
+  </si>
+  <si>
+    <t>{count: record.s.pairWin}</t>
+  </si>
+  <si>
+    <t>record.s.pairWin</t>
   </si>
 </sst>
 </file>
@@ -3617,7 +3599,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3655,7 +3637,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>35</v>
@@ -3664,39 +3646,39 @@
         <v>114</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D2" s="55" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E2" s="55" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F2" s="57" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="I2" s="54" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="J2" s="54" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3716,16 +3698,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3746,16 +3728,16 @@
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3775,16 +3757,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3807,16 +3789,16 @@
         <v>6</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3839,16 +3821,16 @@
         <v>7</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>154</v>
-      </c>
       <c r="I7" s="47" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3868,16 +3850,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3900,16 +3882,16 @@
         <v>8</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3932,16 +3914,16 @@
         <v>9</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="I10" s="48" t="s">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3964,16 +3946,16 @@
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3996,16 +3978,16 @@
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4028,16 +4010,16 @@
         <v>12</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>154</v>
-      </c>
       <c r="I13" s="48" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4060,16 +4042,16 @@
         <v>13</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4096,10 +4078,10 @@
         <v>112</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="J15" s="59" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4128,10 +4110,10 @@
         <v>112</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4154,16 +4136,16 @@
         <v>15</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4184,16 +4166,16 @@
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="22" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>112</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4217,13 +4199,13 @@
         <v>112</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J19" s="59" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4252,10 +4234,10 @@
         <v>112</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4284,10 +4266,10 @@
         <v>112</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.3">
@@ -4313,10 +4295,10 @@
         <v>112</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4343,10 +4325,10 @@
         <v>112</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="J23" s="59" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4375,10 +4357,10 @@
         <v>112</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="23" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
@@ -4405,10 +4387,10 @@
         <v>112</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4435,10 +4417,10 @@
         <v>112</v>
       </c>
       <c r="I26" s="59" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="J26" s="59" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4465,10 +4447,10 @@
         <v>112</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J27" s="59" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4495,10 +4477,10 @@
         <v>112</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="J28" s="59" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4519,16 +4501,16 @@
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="22" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>112</v>
       </c>
       <c r="I29" s="59" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J29" s="59" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4549,16 +4531,16 @@
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="22" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>112</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J30" s="59" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="20" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
@@ -4579,16 +4561,16 @@
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="22" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>112</v>
       </c>
       <c r="I31" s="59" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J31" s="59" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4608,16 +4590,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4638,16 +4620,16 @@
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4670,16 +4652,16 @@
         <v>19</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="I34" s="47" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="J34" s="47" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4699,16 +4681,16 @@
         <v>0</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4729,16 +4711,16 @@
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I36" s="46" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4759,16 +4741,16 @@
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="14" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I37" s="47" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4791,16 +4773,16 @@
         <v>20</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4820,16 +4802,16 @@
         <v>0</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4850,16 +4832,16 @@
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I40" s="46" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4880,16 +4862,16 @@
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="14" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I41" s="47" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4912,16 +4894,16 @@
         <v>30</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="I42" s="48" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4942,16 +4924,16 @@
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="13" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I43" s="62" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="J43" s="62" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4974,16 +4956,16 @@
         <v>21</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="J44" s="63" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5006,16 +4988,16 @@
         <v>22</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="J45" s="64" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5036,16 +5018,16 @@
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="13" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="I46" s="62" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J46" s="62" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5068,16 +5050,16 @@
         <v>23</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="I47" s="63" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J47" s="63" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5100,16 +5082,16 @@
         <v>24</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J48" s="64" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5132,16 +5114,16 @@
         <v>31</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>113</v>
       </c>
       <c r="I49" s="62" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J49" s="62" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5164,16 +5146,16 @@
         <v>32</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H50" s="14" t="s">
         <v>113</v>
       </c>
       <c r="I50" s="63" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J50" s="63" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5196,16 +5178,16 @@
         <v>33</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H51" s="15" t="s">
         <v>113</v>
       </c>
       <c r="I51" s="64" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J51" s="64" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5226,16 +5208,16 @@
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="25" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="J52" s="49" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5258,16 +5240,16 @@
         <v>25</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I53" s="49" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -5287,16 +5269,16 @@
         <v>0</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I54" s="45" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="J54" s="45" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5319,16 +5301,16 @@
         <v>26</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5351,16 +5333,16 @@
         <v>27</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I56" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" s="47" t="s">
         <v>221</v>
-      </c>
-      <c r="J56" s="47" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5383,16 +5365,16 @@
         <v>28</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="23" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
@@ -5419,10 +5401,10 @@
         <v>112</v>
       </c>
       <c r="I58" s="65" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J58" s="58" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="30" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
@@ -5451,10 +5433,10 @@
         <v>112</v>
       </c>
       <c r="I59" s="66" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J59" s="67" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd-service\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344187AF-692E-43D1-9E11-5C44CD6ADA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71302C-6CF1-4FAF-AA15-53438A6189B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="242">
   <si>
     <t>$id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1806,10 +1806,6 @@
   </si>
   <si>
     <t>settlement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank.main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2445,28 +2441,6 @@
       </rPr>
       <t>分或更多</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.c.badge</t>
-  </si>
-  <si>
-    <t>record.c.badge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.c.card</t>
-  </si>
-  <si>
-    <t>record.c.card</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.c.reddem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.c.pair</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2767,24 +2741,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{count: record.c.badge}</t>
-  </si>
-  <si>
-    <t>{count: record.c.badge}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{count: record.c.card}</t>
-  </si>
-  <si>
     <t>{count: record.c.pair}</t>
   </si>
   <si>
     <t>[$ge, ?count, 100000]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{count: record.c.card}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2826,10 +2786,6 @@
   </si>
   <si>
     <t>{count: record.c.reddem}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.c.discount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2875,13 +2831,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>record.c.m0</t>
-  </si>
-  <si>
-    <t>record.c.m0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2900,17 +2849,6 @@
   </si>
   <si>
     <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank.ten</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank.hundred</t>
-  </si>
-  <si>
-    <t>rank.hundred</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2939,20 +2877,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>record.c.10Win</t>
-  </si>
-  <si>
-    <t>record.c.10Win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>record.c.100Win</t>
-  </si>
-  <si>
-    <t>record.c.100Win</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{count: record.c.10Win}</t>
   </si>
   <si>
@@ -2962,13 +2886,56 @@
     <t>{count: record.c.privWin}</t>
   </si>
   <si>
-    <t>record.c.privWin</t>
-  </si>
-  <si>
     <t>{count: record.s.pairWin}</t>
   </si>
   <si>
-    <t>record.s.pairWin</t>
+    <t>{count: asset.count.badge}</t>
+  </si>
+  <si>
+    <t>{count: asset.count.badge}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{count: asset.count.card}</t>
+  </si>
+  <si>
+    <t>{count: asset.count.card}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$record</t>
+  </si>
+  <si>
+    <t>$record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$settlement</t>
+  </si>
+  <si>
+    <t>$settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$rank</t>
+  </si>
+  <si>
+    <t>$rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$asset</t>
+  </si>
+  <si>
+    <t>$asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3599,7 +3566,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3611,7 +3578,7 @@
     <col min="5" max="5" width="15.08203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.5" style="36" customWidth="1"/>
     <col min="7" max="7" width="12.08203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="12" customWidth="1"/>
     <col min="9" max="9" width="41.08203125" style="53" customWidth="1"/>
     <col min="10" max="10" width="57.08203125" style="45" customWidth="1"/>
     <col min="11" max="16384" width="25.5" style="2"/>
@@ -3637,48 +3604,48 @@
         <v>34</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>167</v>
-      </c>
       <c r="J2" s="54" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3698,16 +3665,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3728,16 +3695,16 @@
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="13" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3757,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3789,16 +3756,16 @@
         <v>6</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3821,16 +3788,16 @@
         <v>7</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3850,16 +3817,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3882,16 +3849,16 @@
         <v>8</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3914,16 +3881,16 @@
         <v>9</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3946,16 +3913,16 @@
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3978,16 +3945,16 @@
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4010,16 +3977,16 @@
         <v>12</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4042,16 +4009,16 @@
         <v>13</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4059,10 +4026,10 @@
         <v>113</v>
       </c>
       <c r="B15" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>116</v>
       </c>
       <c r="D15" s="20">
         <v>0</v>
@@ -4075,13 +4042,13 @@
         <v>112</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J15" s="59" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4089,10 +4056,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>118</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
@@ -4107,13 +4074,13 @@
         <v>112</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4136,16 +4103,16 @@
         <v>15</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4153,10 +4120,10 @@
         <v>116</v>
       </c>
       <c r="B18" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>119</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>120</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
@@ -4166,16 +4133,16 @@
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="22" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4183,10 +4150,10 @@
         <v>117</v>
       </c>
       <c r="B19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>121</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>122</v>
       </c>
       <c r="D19" s="20">
         <v>0</v>
@@ -4199,13 +4166,13 @@
         <v>112</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J19" s="59" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4213,10 +4180,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>124</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -4231,13 +4198,13 @@
         <v>112</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4245,10 +4212,10 @@
         <v>119</v>
       </c>
       <c r="B21" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>125</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>126</v>
       </c>
       <c r="D21" s="26">
         <v>2</v>
@@ -4263,13 +4230,13 @@
         <v>112</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.3">
@@ -4292,13 +4259,13 @@
         <v>112</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4306,10 +4273,10 @@
         <v>121</v>
       </c>
       <c r="B23" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>128</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
@@ -4322,13 +4289,13 @@
         <v>112</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I23" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="59" t="s">
         <v>181</v>
-      </c>
-      <c r="J23" s="59" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4336,10 +4303,10 @@
         <v>122</v>
       </c>
       <c r="B24" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>129</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>130</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -4354,13 +4321,13 @@
         <v>112</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="23" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
@@ -4368,10 +4335,10 @@
         <v>123</v>
       </c>
       <c r="B25" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>131</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>132</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
@@ -4384,13 +4351,13 @@
         <v>112</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4398,10 +4365,10 @@
         <v>124</v>
       </c>
       <c r="B26" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>133</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>134</v>
       </c>
       <c r="D26" s="20">
         <v>0</v>
@@ -4414,13 +4381,13 @@
         <v>112</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I26" s="59" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J26" s="59" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4428,10 +4395,10 @@
         <v>125</v>
       </c>
       <c r="B27" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>136</v>
       </c>
       <c r="D27" s="20">
         <v>0</v>
@@ -4444,13 +4411,13 @@
         <v>112</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J27" s="59" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4458,10 +4425,10 @@
         <v>126</v>
       </c>
       <c r="B28" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>138</v>
       </c>
       <c r="D28" s="20">
         <v>0</v>
@@ -4474,13 +4441,13 @@
         <v>112</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J28" s="59" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4488,10 +4455,10 @@
         <v>127</v>
       </c>
       <c r="B29" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>140</v>
       </c>
       <c r="D29" s="20">
         <v>0</v>
@@ -4501,16 +4468,16 @@
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="22" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I29" s="59" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J29" s="59" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4518,10 +4485,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="33" t="s">
         <v>141</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>142</v>
       </c>
       <c r="D30" s="20">
         <v>0</v>
@@ -4531,16 +4498,16 @@
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="22" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J30" s="59" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="20" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
@@ -4548,10 +4515,10 @@
         <v>129</v>
       </c>
       <c r="B31" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>144</v>
       </c>
       <c r="D31" s="20">
         <v>0</v>
@@ -4561,16 +4528,16 @@
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="22" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I31" s="59" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J31" s="59" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4590,16 +4557,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4620,16 +4587,16 @@
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="13" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4652,16 +4619,16 @@
         <v>19</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I34" s="47" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J34" s="47" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4681,16 +4648,16 @@
         <v>0</v>
       </c>
       <c r="G35" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>205</v>
-      </c>
       <c r="J35" s="45" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4711,16 +4678,16 @@
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="I36" s="46" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4741,16 +4708,16 @@
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="I37" s="47" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4773,16 +4740,16 @@
         <v>20</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4802,16 +4769,16 @@
         <v>0</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4832,16 +4799,16 @@
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="I40" s="46" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4862,16 +4829,16 @@
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="14" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="I41" s="47" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4894,16 +4861,16 @@
         <v>30</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="I42" s="48" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4924,16 +4891,16 @@
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="13" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="I43" s="62" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J43" s="62" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4956,16 +4923,16 @@
         <v>21</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J44" s="63" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4988,16 +4955,16 @@
         <v>22</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="J45" s="64" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5018,16 +4985,16 @@
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I46" s="62" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="J46" s="62" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5050,16 +5017,16 @@
         <v>23</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I47" s="63" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="J47" s="63" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5082,16 +5049,16 @@
         <v>24</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="J48" s="64" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5114,16 +5081,16 @@
         <v>31</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="I49" s="62" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J49" s="62" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5146,16 +5113,16 @@
         <v>32</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="I50" s="63" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J50" s="63" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5178,16 +5145,16 @@
         <v>33</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="I51" s="64" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="J51" s="64" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5198,7 +5165,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" s="23">
         <v>1</v>
@@ -5208,16 +5175,16 @@
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="25" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="J52" s="49" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5225,10 +5192,10 @@
         <v>151</v>
       </c>
       <c r="B53" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="D53" s="23">
         <v>1</v>
@@ -5240,16 +5207,16 @@
         <v>25</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="I53" s="49" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -5269,16 +5236,16 @@
         <v>0</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="I54" s="45" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J54" s="45" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5301,16 +5268,16 @@
         <v>26</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5333,16 +5300,16 @@
         <v>27</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="I56" s="50" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="J56" s="47" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5365,16 +5332,16 @@
         <v>28</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="23" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
@@ -5382,10 +5349,10 @@
         <v>156</v>
       </c>
       <c r="B58" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>148</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>149</v>
       </c>
       <c r="D58" s="24">
         <v>1</v>
@@ -5398,13 +5365,13 @@
         <v>112</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I58" s="65" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="J58" s="58" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="30" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
@@ -5412,10 +5379,10 @@
         <v>157</v>
       </c>
       <c r="B59" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>151</v>
       </c>
       <c r="D59" s="31">
         <v>3</v>
@@ -5430,13 +5397,13 @@
         <v>112</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="I59" s="66" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="J59" s="67" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71302C-6CF1-4FAF-AA15-53438A6189B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66073D8-DF10-4E4D-B925-CE3F22495F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3563,10 +3563,10 @@
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5355,7 +5355,7 @@
         <v>148</v>
       </c>
       <c r="D58" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="24">
         <v>1</v>
@@ -5385,7 +5385,7 @@
         <v>150</v>
       </c>
       <c r="D59" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" s="31">
         <v>1</v>

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd-service\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66073D8-DF10-4E4D-B925-CE3F22495F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A537E-D5D4-4661-8746-19201476AB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,7 +818,46 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>累计获得</t>
+      <t>月入过万</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>与众不同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥有</t>
     </r>
     <r>
       <rPr>
@@ -827,43 +866,43 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月入过万</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>累计获得</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个头衔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刻耳柏洛斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥有</t>
     </r>
     <r>
       <rPr>
@@ -872,43 +911,43 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>土块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>累计获得</t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个头衔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知名人士</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拥有</t>
     </r>
     <r>
       <rPr>
@@ -917,30 +956,30 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>100000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>与众不同</t>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个头衔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>低调</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -962,7 +1001,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>1</t>
+      <t>30</t>
     </r>
     <r>
       <rPr>
@@ -973,19 +1012,6 @@
         <charset val="134"/>
       </rPr>
       <t>个头衔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>刻耳柏洛斯</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,20 +1043,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>个头衔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>知名人士</t>
+      <t>个名片背景</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,20 +1075,20 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>个头衔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>低调</t>
+      <t>个名片背景</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择困难症</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,51 +1120,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>个头衔</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>三原色</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拥有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>个名片背景</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,129 +1133,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>五彩斑斓的黑</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拥有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个名片背景</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择困难症</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拥有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个名片背景</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>社交达人</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拥有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个名片背景</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2827,10 +2673,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{count: record.c.m0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2935,6 +2777,148 @@
   </si>
   <si>
     <t>$asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三原色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个名片背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{count: record.c.m1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>币</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>累计获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>币</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2942,7 +2926,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3013,6 +2997,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -3073,7 +3078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3273,6 +3278,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3563,10 +3586,10 @@
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
+      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3604,48 +3627,48 @@
         <v>34</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>35</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="55" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="I2" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>160</v>
-      </c>
       <c r="J2" s="54" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3665,16 +3688,16 @@
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3695,16 +3718,16 @@
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3724,16 +3747,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3756,16 +3779,16 @@
         <v>6</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J6" s="46" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3788,16 +3811,16 @@
         <v>7</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I7" s="47" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3817,16 +3840,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3849,16 +3872,16 @@
         <v>8</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3881,16 +3904,16 @@
         <v>9</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J10" s="48" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3913,16 +3936,16 @@
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -3945,16 +3968,16 @@
         <v>11</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J12" s="45" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -3977,16 +4000,16 @@
         <v>12</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4009,16 +4032,16 @@
         <v>13</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J14" s="47" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4026,10 +4049,10 @@
         <v>113</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D15" s="20">
         <v>0</v>
@@ -4039,16 +4062,16 @@
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="I15" s="59" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J15" s="59" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4056,10 +4079,10 @@
         <v>114</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D16" s="23">
         <v>1</v>
@@ -4071,16 +4094,16 @@
         <v>14</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J16" s="58" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4103,16 +4126,16 @@
         <v>15</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I17" s="47" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4120,10 +4143,10 @@
         <v>116</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
@@ -4133,16 +4156,16 @@
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J18" s="59" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="20" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4150,10 +4173,10 @@
         <v>117</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D19" s="20">
         <v>0</v>
@@ -4163,16 +4186,16 @@
       </c>
       <c r="F19" s="40"/>
       <c r="G19" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I19" s="59" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J19" s="59" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4180,10 +4203,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D20" s="23">
         <v>1</v>
@@ -4195,16 +4218,16 @@
         <v>16</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J20" s="58" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4212,10 +4235,10 @@
         <v>119</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D21" s="26">
         <v>2</v>
@@ -4227,16 +4250,16 @@
         <v>17</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I21" s="60" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J21" s="60" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="62" x14ac:dyDescent="0.3">
@@ -4256,16 +4279,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4273,10 +4296,10 @@
         <v>121</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
@@ -4286,16 +4309,16 @@
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I23" s="59" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J23" s="59" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="23" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4303,10 +4326,10 @@
         <v>122</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D24" s="23">
         <v>1</v>
@@ -4318,16 +4341,16 @@
         <v>18</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I24" s="58" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="23" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
@@ -4335,10 +4358,10 @@
         <v>123</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D25" s="23">
         <v>1</v>
@@ -4348,16 +4371,16 @@
       </c>
       <c r="F25" s="41"/>
       <c r="G25" s="25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I25" s="58" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4365,10 +4388,10 @@
         <v>124</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D26" s="20">
         <v>0</v>
@@ -4378,16 +4401,16 @@
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I26" s="59" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J26" s="59" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4395,10 +4418,10 @@
         <v>125</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D27" s="20">
         <v>0</v>
@@ -4408,16 +4431,16 @@
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I27" s="59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J27" s="59" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4425,10 +4448,10 @@
         <v>126</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D28" s="20">
         <v>0</v>
@@ -4438,16 +4461,16 @@
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I28" s="59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J28" s="59" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4455,10 +4478,10 @@
         <v>127</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D29" s="20">
         <v>0</v>
@@ -4468,16 +4491,16 @@
       </c>
       <c r="F29" s="40"/>
       <c r="G29" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I29" s="59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J29" s="59" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="20" customFormat="1" ht="77.5" x14ac:dyDescent="0.3">
@@ -4485,10 +4508,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D30" s="20">
         <v>0</v>
@@ -4498,16 +4521,16 @@
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I30" s="59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J30" s="59" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="20" customFormat="1" ht="201.5" x14ac:dyDescent="0.3">
@@ -4515,10 +4538,10 @@
         <v>129</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D31" s="20">
         <v>0</v>
@@ -4528,16 +4551,16 @@
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="22" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I31" s="59" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J31" s="59" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4547,8 +4570,8 @@
       <c r="B32" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>65</v>
+      <c r="C32" s="73" t="s">
+        <v>238</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -4557,16 +4580,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I32" s="45" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J32" s="45" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4574,10 +4597,10 @@
         <v>131</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>240</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
@@ -4587,16 +4610,16 @@
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J33" s="46" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4604,10 +4627,10 @@
         <v>132</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>241</v>
       </c>
       <c r="D34" s="9">
         <v>2</v>
@@ -4619,16 +4642,16 @@
         <v>19</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I34" s="47" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="J34" s="47" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -4636,10 +4659,10 @@
         <v>133</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D35" s="2">
         <v>0</v>
@@ -4648,16 +4671,16 @@
         <v>0</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I35" s="45" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="J35" s="45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4665,10 +4688,10 @@
         <v>134</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
@@ -4678,16 +4701,16 @@
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I36" s="46" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J36" s="46" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4695,10 +4718,10 @@
         <v>135</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D37" s="9">
         <v>2</v>
@@ -4708,16 +4731,16 @@
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I37" s="47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J37" s="47" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4725,10 +4748,10 @@
         <v>136</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
@@ -4740,27 +4763,27 @@
         <v>20</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J38" s="48" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>137</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>79</v>
+      <c r="B39" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="68" t="s">
+        <v>237</v>
       </c>
       <c r="D39" s="2">
         <v>0</v>
@@ -4769,27 +4792,27 @@
         <v>0</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>138</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>81</v>
+      <c r="B40" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>75</v>
       </c>
       <c r="D40" s="5">
         <v>1</v>
@@ -4799,16 +4822,16 @@
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I40" s="46" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4816,10 +4839,10 @@
         <v>139</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>76</v>
       </c>
       <c r="D41" s="9">
         <v>2</v>
@@ -4829,16 +4852,16 @@
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I41" s="47" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4846,10 +4869,10 @@
         <v>140</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="C42" s="72" t="s">
+        <v>78</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -4861,16 +4884,16 @@
         <v>30</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I42" s="48" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4878,10 +4901,10 @@
         <v>141</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
@@ -4891,16 +4914,16 @@
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="13" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I43" s="62" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J43" s="62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4908,10 +4931,10 @@
         <v>142</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D44" s="9">
         <v>2</v>
@@ -4923,16 +4946,16 @@
         <v>21</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I44" s="63" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J44" s="63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4940,10 +4963,10 @@
         <v>143</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D45" s="7">
         <v>3</v>
@@ -4955,16 +4978,16 @@
         <v>22</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="J45" s="64" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -4972,10 +4995,10 @@
         <v>144</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
@@ -4985,16 +5008,16 @@
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I46" s="62" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J46" s="62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5002,10 +5025,10 @@
         <v>145</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D47" s="9">
         <v>2</v>
@@ -5017,16 +5040,16 @@
         <v>23</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I47" s="63" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J47" s="63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5034,10 +5057,10 @@
         <v>146</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D48" s="7">
         <v>3</v>
@@ -5049,16 +5072,16 @@
         <v>24</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J48" s="64" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5066,10 +5089,10 @@
         <v>147</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D49" s="5">
         <v>1</v>
@@ -5081,16 +5104,16 @@
         <v>31</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I49" s="62" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J49" s="62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5098,10 +5121,10 @@
         <v>148</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D50" s="9">
         <v>2</v>
@@ -5113,16 +5136,16 @@
         <v>32</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I50" s="63" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J50" s="63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="7" customFormat="1" ht="62" x14ac:dyDescent="0.3">
@@ -5130,10 +5153,10 @@
         <v>149</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D51" s="7">
         <v>3</v>
@@ -5145,16 +5168,16 @@
         <v>33</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I51" s="64" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J51" s="64" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5165,7 +5188,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D52" s="23">
         <v>1</v>
@@ -5175,16 +5198,16 @@
       </c>
       <c r="F52" s="41"/>
       <c r="G52" s="25" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I52" s="49" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J52" s="49" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5192,10 +5215,10 @@
         <v>151</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D53" s="23">
         <v>1</v>
@@ -5207,16 +5230,16 @@
         <v>25</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I53" s="49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
@@ -5224,10 +5247,10 @@
         <v>152</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
@@ -5236,16 +5259,16 @@
         <v>0</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I54" s="45" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J54" s="45" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5253,10 +5276,10 @@
         <v>153</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
@@ -5268,16 +5291,16 @@
         <v>26</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5285,10 +5308,10 @@
         <v>154</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D56" s="10">
         <v>2</v>
@@ -5300,16 +5323,16 @@
         <v>27</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I56" s="50" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J56" s="47" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -5317,10 +5340,10 @@
         <v>155</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D57" s="8">
         <v>3</v>
@@ -5332,16 +5355,16 @@
         <v>28</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I57" s="51" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J57" s="48" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="23" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
@@ -5349,10 +5372,10 @@
         <v>156</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D58" s="24">
         <v>0</v>
@@ -5362,16 +5385,16 @@
       </c>
       <c r="F58" s="41"/>
       <c r="G58" s="29" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I58" s="65" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J58" s="58" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="30" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
@@ -5379,10 +5402,10 @@
         <v>157</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D59" s="31">
         <v>1</v>
@@ -5394,16 +5417,16 @@
         <v>29</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I59" s="66" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J59" s="67" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">

--- a/data/achievement.xlsx
+++ b/data/achievement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd-service\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\vick\dev\motleycrowd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6A537E-D5D4-4661-8746-19201476AB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3FB6D-AD18-40A0-8574-10A02546244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3586,10 +3586,10 @@
   <dimension ref="A1:J175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H44" sqref="H44"/>
+      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4801,7 +4801,7 @@
         <v>224</v>
       </c>
       <c r="J39" s="45" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4831,7 +4831,7 @@
         <v>223</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4861,7 +4861,7 @@
         <v>223</v>
       </c>
       <c r="J41" s="47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -4893,7 +4893,7 @@
         <v>223</v>
       </c>
       <c r="J42" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="5" customFormat="1" ht="62" x14ac:dyDescent="0.3">
